--- a/Dataset/Folds/Fold_1/Excel/8.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10216" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11296" uniqueCount="1536">
   <si>
     <t>Doi</t>
   </si>
@@ -4757,6 +4757,435 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                               Lihua%Zhu%NULL%1,                               Jingjing%Cai%NULL%1,                               Fang%Lei%NULL%1,                               Juan-Juan%Qin%NULL%1,                               Jing%Xie%NULL%1,                               Ye-Mao%Liu%NULL%1,                               Yan-Ci%Zhao%NULL%1,                               Xuewei%Huang%NULL%1,                               Lijin%Lin%NULL%1,                               Meng%Xia%NULL%1,                               Ming-Ming%Chen%NULL%1,                               Xu%Cheng%NULL%1,                               Xiao%Zhang%NULL%1,                               Deliang%Guo%NULL%1,                               Yuanyuan%Peng%NULL%1,                               Yan-Xiao%Ji%NULL%1,                               Jing%Chen%NULL%1,                               Zhi-Gang%She%NULL%1,                               Yibin%Wang%NULL%0,                               Qingbo%Xu%NULL%1,                               Renfu%Tan%NULL%1,                               Haitao%Wang%NULL%1,                               Jun%Lin%NULL%1,                               Pengcheng%Luo%NULL%1,                               Shouzhi%Fu%NULL%1,                               Hongbin%Cai%NULL%1,                               Ping%Ye%NULL%1,                               Bing%Xiao%NULL%1,                               Weiming%Mao%NULL%1,                               Liming%Liu%NULL%1,                               Youqin%Yan%NULL%1,                               Mingyu%Liu%NULL%1,                               Manhua%Chen%NULL%1,                               Xiao-Jing%Zhang%NULL%1,                               Xinghuan%Wang%NULL%1,                               Rhian M.%Touyz%NULL%1,                               Jiahong%Xia%NULL%1,                               Bing-Hong%Zhang%NULL%1,                               Xiaodong%Huang%NULL%1,                               Yufeng%Yuan%NULL%1,                               Rohit%Loomba%NULL%1,                               Peter P.%Liu%NULL%1,                               Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                                Sandra%Santos-Martinez%NULL%1,                                Diego%López-Otero%NULL%1,                                Luis%Nombela-Franco%NULL%1,                                Enrique%Gutiérrez-Ibanes%NULL%1,                                Raquel%Del Valle%NULL%1,                                Erika%Muñoz-García%NULL%1,                                Víctor A.%Jiménez-Diaz%NULL%1,                                Ander%Regueiro%NULL%1,                                Rocío%González-Ferreiro%NULL%1,                                Tomás%Benito%NULL%1,                                Xoan Carlos%Sanmartin-Pena%NULL%1,                                Pablo%Catalá%NULL%1,                                Tania%Rodríguez-Gabella%NULL%1,                                Jose Raúl%Delgado-Arana%NULL%1,                                Manuel%Carrasco-Moraleja%NULL%1,                                Borja%Ibañez%NULL%1,                                J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                                David M.%Tehrani%NULL%1,                                Soniya V.%Rabadia%NULL%1,                                Marlene%Frost%NULL%1,                                Rushi V.%Parikh%NULL%1,                                Marcella%Calfon-Press%NULL%1,                                Olcay%Aksoy%NULL%1,                                Soban%Umar%NULL%1,                                Reza%Ardehali%NULL%1,                                Amir%Rabbani%NULL%1,                                Pooya%Bokhoor%NULL%1,                                Ali%Nsair%NULL%1,                                Jesse%Currier%NULL%1,                                Jonathan%Tobis%NULL%1,                                Gregg C.%Fonarow%NULL%1,                                Ravi%Dave%NULL%1,                                Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                                Zeljko%Kraljevic%NULL%1,                                Thomas%Searle%NULL%1,                                Rebecca%Bendayan%NULL%1,                                O'Gallagher%Kevin%NULL%1,                                Andrew%Pickles%NULL%1,                                Amos%Folarin%NULL%1,                                Lukasz%Roguski%NULL%1,                                Kawsar%Noor%NULL%1,                                Anthony%Shek%NULL%1,                                Rosita%Zakeri%NULL%1,                                Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                                James T.H.%Teo%jamesteo@nhs.net%1,                                Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                                Mauro%Chiarito%NULL%1,                                Bernhard%Reimers%NULL%2,                                Bernhard%Reimers%NULL%0,                                Elena%Azzolini%NULL%1,                                Giuseppe%Ferrante%NULL%1,                                Ilaria%My%NULL%1,                                Giacomo%Viggiani%NULL%1,                                Cristina%Panico%NULL%1,                                Damiano%Regazzoli%NULL%1,                                Michele%Ciccarelli%NULL%1,                                Antonio%Voza%NULL%1,                                Alessio%Aghemo%NULL%1,                                Hongliang%Li%NULL%2,                                Yibin%Wang%NULL%2,                                Gianluigi%Condorelli%NULL%1,                                Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                                Feng%Wang%NULL%1,                                Peng%Chen%NULL%1,                                Jiangang%Jiang%NULL%1,                                Guanglin%Cui%NULL%1,                                Ning%Zhou%NULL%2,                                Francesco%Moroni%NULL%1,                                Javid J.%Moslehi%NULL%1,                                Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                                Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                                Ming%Zhong%NULL%1,                                Ya%Liu%NULL%1,                                Yi%Zhang%NULL%2,                                Kai%Zhang%NULL%1,                                De-zhen%Su%NULL%1,                                Xiao%Meng%NULL%1,                                Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                                Duncan%Young%NULL%2,                                Duncan%Young%NULL%0,                                Carol%Coupland%NULL%1,                                Keith M%Channon%NULL%1,                                Pui San%Tan%NULL%1,                                David A%Harrison%NULL%1,                                Kathryn%Rowan%NULL%2,                                Kathryn%Rowan%NULL%0,                                Paul%Aveyard%NULL%1,                                Ian D%Pavord%NULL%1,                                Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                                Yue%Cai%NULL%1,                                Kan%Zhang%NULL%2,                                Kan%Zhang%NULL%0,                                Lei%Zhou%NULL%1,                                Yao%Zhang%NULL%1,                                Xijing%Zhang%NULL%1,                                Qi%Li%NULL%1,                                Weiqin%Li%NULL%1,                                Shiming%Yang%NULL%1,                                Xiaoyan%Zhao%NULL%1,                                Yuying%Zhao%NULL%1,                                Hui%Wang%NULL%1,                                Yi%Liu%NULL%2,                                Zhiyong%Yin%NULL%1,                                Ruining%Zhang%NULL%1,                                Rutao%Wang%NULL%1,                                Ming%Yang%NULL%1,                                Chen%Hui%NULL%1,                                William%Wijns%NULL%1,                                J William%McEvoy%NULL%1,                                Osama%Soliman%NULL%2,                                Osama%Soliman%NULL%0,                                Yoshinobu%Onuma%NULL%2,                                Yoshinobu%Onuma%NULL%0,                                Patrick W%Serruys%NULL%1,                                Ling%Tao%lingtao@fmmu.edu.cn%1,                                Fei%Li%lifei01@fmmu.edu.cn%2,                                Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                                Erkan%Ekicibasi%NULL%1,                                Aleks%Degirmencioglu%NULL%1,                                Ashok%Paudel%NULL%1,                                Refik%Erdim%NULL%1,                                Hilal Kurtoglu%Gumusel%NULL%1,                                Elif%Eroglu%NULL%1,                                Ibrahim Halil%Tanboga%NULL%1,                                Sinan%Dagdelen%NULL%1,                                Nevin%Sariguzel%NULL%1,                                Ceyda Erel%Kirisoglu%NULL%1,                                Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                                Jiatian%Cao%NULL%1,                                Yumeng%Yao%NULL%1,                                Xuejuan%Jin%NULL%1,                                Zhe%Luo%NULL%1,                                Yuan%Xue%NULL%1,                                Chouwen%Zhu%NULL%1,                                Yanan%Song%NULL%1,                                Ying%Wang%NULL%1,                                Yunzeng%Zou%NULL%1,                                Juying%Qian%NULL%1,                                Kaihuan%Yu%NULL%1,                                Hui%Gong%NULL%1,                                Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                                Ju-Hyun%Kim%NULL%1,                                Jin-Sung%Park%NULL%1,                                Min Cheol%Chang%wheel633@ynu.ac.kr%1,                                Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                                Raphael Romano%Bruno%NULL%1,                                Bernhard%Wernly%NULL%1,                                Michael%Joannidis%NULL%1,                                Sandra%Oeyen%NULL%1,                                Tilemachos%Zafeiridis%NULL%1,                                Brian%Marsh%NULL%1,                                Finn H%Andersen%NULL%1,                                Rui%Moreno%NULL%1,                                Ana Margarida%Fernandes%NULL%1,                                Antonio%Artigas%NULL%1,                                Bernardo Bollen%Pinto%NULL%1,                                Joerg%Schefold%NULL%1,                                Georg%Wolff%NULL%1,                                Malte%Kelm%NULL%2,                                Malte%Kelm%NULL%0,                                Dylan W%De Lange%NULL%1,                                Bertrand%Guidet%NULL%1,                                Hans%Flaatten%NULL%1,                                Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                                Jae Chol%Choi%NULL%1,                                Seung-Hun%You%NULL%1,                                Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                                Hamish%Reed-Embleton%NULL%2,                                Hamish%Reed-Embleton%NULL%0,                                Jen%Lewis%NULL%2,                                Jen%Lewis%NULL%0,                                Pamela%Bain%NULL%1,                                Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                                Kenneth W%Chow%NULL%1,                                Jonathan%Vo%NULL%1,                                Wei%Hou%NULL%1,                                Haifang%Li%NULL%1,                                Paul S%Richman%NULL%1,                                Sandeep K%Mallipattu%NULL%1,                                Hal A%Skopicki%NULL%1,                                Adam J%Singer%NULL%1,                                Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                                Julien%Moragny%NULL%2,                                Julien%Moragny%NULL%0,                                Youssef%Bennis%NULL%1,                                Benjamin%Batteux%NULL%1,                                Etienne%Brochot%NULL%1,                                Jean Luc%Schmit%NULL%1,                                Jean-Philippe%Lanoix%NULL%1,                                Claire%Andrejak%NULL%1,                                Olivier%Ganry%NULL%1,                                Michel%Slama%NULL%1,                                Julien%Maizel%NULL%1,                                Yazine%Mahjoub%NULL%1,                                Kamel%Masmoudi%NULL%1,                                Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                                Yi%Liu%NULL%0,                                Keliang%Chen%NULL%1,                                Suying%Yan%NULL%1,                                Xiangrong%Bai%NULL%1,                                Juan%Li%947281063@qq.com%1,                                Dong%Liu%ld2069@outlook.com%2,                                Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                                Javier%López-Pais%NULL%1,                                Carla Eugenia%Cacho-Antonio%NULL%1,                                Pablo José%Antúnez-Muiños%NULL%1,                                Teba%González-Ferrero%NULL%1,                                Marta%Pérez-Poza%NULL%1,                                Óscar%Otero-García%NULL%1,                                Brais%Díaz-Fernández%NULL%1,                                María%Bastos-Fernández%NULL%1,                                Noelia%Bouzas-Cruz%NULL%1,                                Xoan Carlos%Sanmartín-Pena%NULL%1,                                Alfonso%Varela-Román%NULL%1,                                Manuel%Portela-Romero%NULL%1,                                Luis%Valdés-Cuadrado%NULL%1,                                Antonio%Pose-Reino%NULL%1,                                José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                                Federico%Rea%NULL%1,                                Monica%Ludergnani%NULL%4,                                Monica%Ludergnani%NULL%0,                                Giovanni%Apolone%NULL%1,                                Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                                Guohui%Xiao%NULL%1,                                Juanjuan%Zhang%NULL%1,                                Xing%He%NULL%1,                                Min%Ou%NULL%1,                                Jing%Bi%NULL%1,                                Rongqing%Yang%NULL%1,                                Wencheng%Di%NULL%1,                                Zhaoqin%Wang%NULL%1,                                Zigang%Li%NULL%1,                                Hong%Gao%NULL%1,                                Lei%Liu%NULL%1,                                Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                                Francisca%García-Iglesias%NULL%1,                                Teresa%González-Alegre%NULL%1,                                Francisco%Blanco%NULL%1,                                Marta%Varas%NULL%1,                                Clara%Hernández-Blanco%NULL%1,                                Victor%Hontañón%NULL%1,                                María J.%Jaras-Hernández%NULL%1,                                Mónica%Martínez-Prieto%NULL%1,                                Araceli%Menéndez-Saldaña%NULL%1,                                María L.%Cachán%NULL%1,                                Eva%Estirado%NULL%1,                                Carlos%Lahoz%NULL%1,                                Rosa%de Miguel%NULL%1,                                Miriam%Romero%NULL%1,                                Mar%Lago%NULL%1,                                Cristina%García-Quero%NULL%1,                                Cristina%Plaza%NULL%1,                                Talía%Sainz-Costa%NULL%1,                                Susana%Rivas-Vila%NULL%1,                                Blanca%Sánchez%NULL%1,                                Celia García%Torres%NULL%1,                                Lucía%Martínez-Tobar%NULL%1,                                María%Hernandez-Pérez%NULL%1,                                Pablo%Racionero%NULL%1,                                Patricia%Mir-Ihara%NULL%1,                                Jesús%Peña-López%NULL%1,                                Marta%Bautista-Barea%NULL%1,                                Alexa P.%Benítez%NULL%1,                                Pablo%Rodríguez-Merlos%NULL%1,                                María%Barcenilla%NULL%1,                                María San%Basilio%NULL%1,                                María%Valencia%NULL%1,                                Ricardo%Romero-Martín%NULL%1,                                Ana%Boto de los Bueis%NULL%1,                                Adriana%de la Hoz-Polo%NULL%1,                                María%del Pino-Cidad%NULL%1,                                Javier%Coca-Robinot%NULL%1,                                Bárbara%González-Ferrer%NULL%1,                                Pedro%Fernández-Pérez%NULL%1,                                Isabel%Mogollón%NULL%1,                                María S.%Montoro-Romero%NULL%1,                                Isabel%Villalaín%NULL%1,                                Almudena%del Hierro-Zarzuelo%NULL%1,                                Irene%Hernández-Martín%NULL%1,                                Javier%Domínguez%NULL%1,                                Alberto%Luna%NULL%1,                                Soledad%Montoro%NULL%1,                                Margarita%Sánchez-Orgaz%NULL%1,                                Gloria%Amorena%NULL%1,                                Cosme%Lavín-Dapena%NULL%1,                                Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                                Stanislas%Gleye%NULL%1,                                Isabelle%Clerc Urmes%NULL%1,                                Elodie%Laugel%NULL%1,                                Jonas%Callet%NULL%1,                                Françoise%Barbé%NULL%1,                                Sophie%Orlowski%NULL%1,                                Catherine%Malaplate%NULL%1,                                Isabelle%Aimone-Gastin%NULL%1,                                Beatrice Maatem%Caillierez%NULL%1,                                Marc%Merten%NULL%1,                                Elise%Jeannesson%NULL%1,                                Raphaël%Kormann%NULL%1,                                Jean-Luc%Olivier%NULL%1,                                Rosa-Maria%Rodriguez-Guéant%NULL%1,                                Farès%Namour%NULL%1,                                Sybille%Bevilacqua%NULL%1,                                Marie-Reine%Losser%NULL%1,                                Bruno%Levy%NULL%1,                                Antoine%Kimmoun%NULL%1,                                Sébastien%Gibot%NULL%1,                                Nathalie%Thilly%NULL%1,                                Luc%Frimat%NULL%1,                                Evelyne%Schvoerer%NULL%1,                                Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                                Samrachana%Adhikari%NULL%1,                                Claudia%Pulgarin%NULL%1,                                Andrea B.%Troxel%NULL%1,                                Eduardo%Iturrate%NULL%1,                                Stephen B.%Johnson%NULL%1,                                Anaïs%Hausvater%NULL%1,                                Jonathan D.%Newman%NULL%1,                                Jeffrey S.%Berger%NULL%1,                                Sripal%Bangalore%NULL%1,                                Stuart D.%Katz%NULL%1,                                Glenn I.%Fishman%NULL%1,                                Dennis%Kunichoff%NULL%1,                                Yu%Chen%NULL%1,                                Gbenga%Ogedegbe%NULL%1,                                Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                                Massimiliano%Marino%NULL%3,                                Debora%Formisano%NULL%1,                                Francesco%Venturelli%NULL%1,                                Massimo%Vicentini%NULL%3,                                Massimo%Vicentini%NULL%0,                                Roberto%Grilli%NULL%2,                                NULL%NULL%NULL%0,                                Gianluigi%Forloni%NULL%8,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0,                                Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                                Paolo%Maggi%NULL%2,                                Paolo%Maggi%NULL%0,                                Vincenzo%Messina%NULL%1,                                Pasquale%Iuliano%NULL%2,                                Pasquale%Iuliano%NULL%0,                                Antonio%Sardu%NULL%1,                                Vincenzo%Iovinella%NULL%1,                                Giuseppe%Paolisso%NULL%1,                                Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                                Rasimcan%Meral%NULL%1,                                Alpay%Medetalibeyoğlu%NULL%1,                                Hilal%Konyaoğlu%NULL%1,                                Murat%Köse%NULL%1,                                Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                                Yun%Qiu%NULL%1,                                Xiang-Bin%Xing%NULL%1,                                Subrata%Ghosh%NULL%1,                                Min-Hu%Chen%NULL%1,                                Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                                Maddalena%Giannella%NULL%1,                                Michele%Bartoletti%NULL%1,                                Filippo%Trapani%NULL%1,                                Marina%Tadolini%NULL%1,                                Claudio%Borghi%NULL%1,                                Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                                Marco%Massari%NULL%3,                                Marco%Massari%NULL%0,                                Roberto%Da Cas%NULL%2,                                Francesca%Menniti Ippolito%NULL%2,                                Janet%Sultana%NULL%2,                                Salvatore%Crisafulli%NULL%2,                                Paolo%Giorgi Rossi%NULL%2,                                Massimiliano%Marino%NULL%0,                                Manuel%Zorzi%NULL%2,                                Emanuela%Bovo%NULL%2,                                Olivia%Leoni%NULL%2,                                Monica%Ludergnani%NULL%0,                                Stefania%Spila Alegiani%stefania.spila@iss.it%2,                                Stefania%Spila Alegiani%NULL%0,                                Francesca%Menniti Ippolito%NULL%0,                                Roberto%Da Cas%NULL%0,                                Marco%Massari%NULL%0,                                Giuseppe%Traversa%NULL%1,                                Graziano%Onder%NULL%1,                                Gianluca%Trifirò%NULL%1,                                Janet%Sultana%NULL%0,                                Valentina%Ientile%NULL%1,                                Salvatore%Crisafulli%NULL%0,                                Paolo%Giorgi Rossi%NULL%0,                                Roberto%Grilli%NULL%0,                                Giulio%Formoso%NULL%1,                                Massimiliano%Marino%NULL%0,                                Massimo%Vicentini%NULL%0,                                Olivia%Leoni%NULL%0,                                Monica%Ludergnani%NULL%0,                                Danilo%Cereda%NULL%1,                                Eliana%Ferroni%NULL%1,                                Stefano%Guzzinati%NULL%1,                                Emanuela%Bovo%NULL%0,                                Manuel%Zorzi%NULL%0,                                Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                                Chaolin%Huang%NULL%1,                                Guohui%Fan%NULL%1,                                Zhibo%Liu%NULL%1,                                Lianhan%Shang%NULL%1,                                Fei%Zhou%NULL%1,                                Yeming%Wang%NULL%1,                                Jiapei%Yu%NULL%1,                                Luning%Yang%NULL%1,                                Ke%Xie%NULL%1,                                Zhisheng%Huang%NULL%1,                                Lixue%Huang%NULL%1,                                Xiaoying%Gu%NULL%1,                                Hui%Li%NULL%1,                                Yi%Zhang%NULL%0,                                Yimin%Wang%NULL%1,                                Frederick G.%Hayden%NULL%1,                                Peter W.%Horby%NULL%1,                                Bin%Cao%caobin_ben@163.com%1,                                Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                                Dan%Liu%NULL%1,                                Shaoqing%Zeng%NULL%1,                                Siyuan%Wang%NULL%1,                                Sen%Xu%NULL%1,                                Ya%Wang%NULL%1,                                Ruidi%Yu%NULL%1,                                Yue%Gao%NULL%1,                                Huayi%Li%NULL%1,                                Xinxia%Feng%NULL%1,                                Ning%Zhou%NULL%0,                                Chunxia%Zhao%NULL%1,                                Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                                Lihua%Zhu%NULL%1,                                Jingjing%Cai%NULL%1,                                Fang%Lei%NULL%1,                                Juan-Juan%Qin%NULL%1,                                Jing%Xie%NULL%1,                                Ye-Mao%Liu%NULL%1,                                Yan-Ci%Zhao%NULL%1,                                Xuewei%Huang%NULL%1,                                Lijin%Lin%NULL%1,                                Meng%Xia%NULL%1,                                Ming-Ming%Chen%NULL%1,                                Xu%Cheng%NULL%1,                                Xiao%Zhang%NULL%1,                                Deliang%Guo%NULL%1,                                Yuanyuan%Peng%NULL%1,                                Yan-Xiao%Ji%NULL%1,                                Jing%Chen%NULL%1,                                Zhi-Gang%She%NULL%1,                                Yibin%Wang%NULL%0,                                Qingbo%Xu%NULL%1,                                Renfu%Tan%NULL%1,                                Haitao%Wang%NULL%1,                                Jun%Lin%NULL%1,                                Pengcheng%Luo%NULL%1,                                Shouzhi%Fu%NULL%1,                                Hongbin%Cai%NULL%1,                                Ping%Ye%NULL%1,                                Bing%Xiao%NULL%1,                                Weiming%Mao%NULL%1,                                Liming%Liu%NULL%1,                                Youqin%Yan%NULL%1,                                Mingyu%Liu%NULL%1,                                Manhua%Chen%NULL%1,                                Xiao-Jing%Zhang%NULL%1,                                Xinghuan%Wang%NULL%1,                                Rhian M.%Touyz%NULL%1,                                Jiahong%Xia%NULL%1,                                Bing-Hong%Zhang%NULL%1,                                Xiaodong%Huang%NULL%1,                                Yufeng%Yuan%NULL%1,                                Rohit%Loomba%NULL%1,                                Peter P.%Liu%NULL%1,                                Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                                 Sandra%Santos-Martinez%NULL%1,                                 Diego%López-Otero%NULL%1,                                 Luis%Nombela-Franco%NULL%1,                                 Enrique%Gutiérrez-Ibanes%NULL%1,                                 Raquel%Del Valle%NULL%1,                                 Erika%Muñoz-García%NULL%1,                                 Víctor A.%Jiménez-Diaz%NULL%1,                                 Ander%Regueiro%NULL%1,                                 Rocío%González-Ferreiro%NULL%1,                                 Tomás%Benito%NULL%1,                                 Xoan Carlos%Sanmartin-Pena%NULL%1,                                 Pablo%Catalá%NULL%1,                                 Tania%Rodríguez-Gabella%NULL%1,                                 Jose Raúl%Delgado-Arana%NULL%1,                                 Manuel%Carrasco-Moraleja%NULL%1,                                 Borja%Ibañez%NULL%1,                                 J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                                 David M.%Tehrani%NULL%1,                                 Soniya V.%Rabadia%NULL%1,                                 Marlene%Frost%NULL%1,                                 Rushi V.%Parikh%NULL%1,                                 Marcella%Calfon-Press%NULL%1,                                 Olcay%Aksoy%NULL%1,                                 Soban%Umar%NULL%1,                                 Reza%Ardehali%NULL%1,                                 Amir%Rabbani%NULL%1,                                 Pooya%Bokhoor%NULL%1,                                 Ali%Nsair%NULL%1,                                 Jesse%Currier%NULL%1,                                 Jonathan%Tobis%NULL%1,                                 Gregg C.%Fonarow%NULL%1,                                 Ravi%Dave%NULL%1,                                 Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                                 Zeljko%Kraljevic%NULL%1,                                 Thomas%Searle%NULL%1,                                 Rebecca%Bendayan%NULL%1,                                 O'Gallagher%Kevin%NULL%1,                                 Andrew%Pickles%NULL%1,                                 Amos%Folarin%NULL%1,                                 Lukasz%Roguski%NULL%1,                                 Kawsar%Noor%NULL%1,                                 Anthony%Shek%NULL%1,                                 Rosita%Zakeri%NULL%1,                                 Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                                 James T.H.%Teo%jamesteo@nhs.net%1,                                 Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                                 Mauro%Chiarito%NULL%1,                                 Bernhard%Reimers%NULL%2,                                 Bernhard%Reimers%NULL%0,                                 Elena%Azzolini%NULL%1,                                 Giuseppe%Ferrante%NULL%1,                                 Ilaria%My%NULL%1,                                 Giacomo%Viggiani%NULL%1,                                 Cristina%Panico%NULL%1,                                 Damiano%Regazzoli%NULL%1,                                 Michele%Ciccarelli%NULL%1,                                 Antonio%Voza%NULL%1,                                 Alessio%Aghemo%NULL%1,                                 Hongliang%Li%NULL%2,                                 Yibin%Wang%NULL%2,                                 Gianluigi%Condorelli%NULL%1,                                 Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                                 Feng%Wang%NULL%1,                                 Peng%Chen%NULL%1,                                 Jiangang%Jiang%NULL%1,                                 Guanglin%Cui%NULL%1,                                 Ning%Zhou%NULL%2,                                 Francesco%Moroni%NULL%1,                                 Javid J.%Moslehi%NULL%1,                                 Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                                 Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                                 Ming%Zhong%NULL%1,                                 Ya%Liu%NULL%1,                                 Yi%Zhang%NULL%2,                                 Kai%Zhang%NULL%1,                                 De-zhen%Su%NULL%1,                                 Xiao%Meng%NULL%1,                                 Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                                 Duncan%Young%NULL%2,                                 Duncan%Young%NULL%0,                                 Carol%Coupland%NULL%1,                                 Keith M%Channon%NULL%1,                                 Pui San%Tan%NULL%1,                                 David A%Harrison%NULL%1,                                 Kathryn%Rowan%NULL%2,                                 Kathryn%Rowan%NULL%0,                                 Paul%Aveyard%NULL%1,                                 Ian D%Pavord%NULL%1,                                 Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                                 Yue%Cai%NULL%1,                                 Kan%Zhang%NULL%2,                                 Kan%Zhang%NULL%0,                                 Lei%Zhou%NULL%1,                                 Yao%Zhang%NULL%1,                                 Xijing%Zhang%NULL%1,                                 Qi%Li%NULL%1,                                 Weiqin%Li%NULL%1,                                 Shiming%Yang%NULL%1,                                 Xiaoyan%Zhao%NULL%1,                                 Yuying%Zhao%NULL%1,                                 Hui%Wang%NULL%1,                                 Yi%Liu%NULL%2,                                 Zhiyong%Yin%NULL%1,                                 Ruining%Zhang%NULL%1,                                 Rutao%Wang%NULL%1,                                 Ming%Yang%NULL%1,                                 Chen%Hui%NULL%1,                                 William%Wijns%NULL%1,                                 J William%McEvoy%NULL%1,                                 Osama%Soliman%NULL%2,                                 Osama%Soliman%NULL%0,                                 Yoshinobu%Onuma%NULL%2,                                 Yoshinobu%Onuma%NULL%0,                                 Patrick W%Serruys%NULL%1,                                 Ling%Tao%lingtao@fmmu.edu.cn%1,                                 Fei%Li%lifei01@fmmu.edu.cn%2,                                 Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                                 Erkan%Ekicibasi%NULL%1,                                 Aleks%Degirmencioglu%NULL%1,                                 Ashok%Paudel%NULL%1,                                 Refik%Erdim%NULL%1,                                 Hilal Kurtoglu%Gumusel%NULL%1,                                 Elif%Eroglu%NULL%1,                                 Ibrahim Halil%Tanboga%NULL%1,                                 Sinan%Dagdelen%NULL%1,                                 Nevin%Sariguzel%NULL%1,                                 Ceyda Erel%Kirisoglu%NULL%1,                                 Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                                 Jiatian%Cao%NULL%1,                                 Yumeng%Yao%NULL%1,                                 Xuejuan%Jin%NULL%1,                                 Zhe%Luo%NULL%1,                                 Yuan%Xue%NULL%1,                                 Chouwen%Zhu%NULL%1,                                 Yanan%Song%NULL%1,                                 Ying%Wang%NULL%1,                                 Yunzeng%Zou%NULL%1,                                 Juying%Qian%NULL%1,                                 Kaihuan%Yu%NULL%1,                                 Hui%Gong%NULL%1,                                 Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                                 Ju-Hyun%Kim%NULL%1,                                 Jin-Sung%Park%NULL%1,                                 Min Cheol%Chang%wheel633@ynu.ac.kr%1,                                 Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                                 Raphael Romano%Bruno%NULL%1,                                 Bernhard%Wernly%NULL%1,                                 Michael%Joannidis%NULL%1,                                 Sandra%Oeyen%NULL%1,                                 Tilemachos%Zafeiridis%NULL%1,                                 Brian%Marsh%NULL%1,                                 Finn H%Andersen%NULL%1,                                 Rui%Moreno%NULL%1,                                 Ana Margarida%Fernandes%NULL%1,                                 Antonio%Artigas%NULL%1,                                 Bernardo Bollen%Pinto%NULL%1,                                 Joerg%Schefold%NULL%1,                                 Georg%Wolff%NULL%1,                                 Malte%Kelm%NULL%2,                                 Malte%Kelm%NULL%0,                                 Dylan W%De Lange%NULL%1,                                 Bertrand%Guidet%NULL%1,                                 Hans%Flaatten%NULL%1,                                 Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                                 Jae Chol%Choi%NULL%1,                                 Seung-Hun%You%NULL%1,                                 Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                                 Hamish%Reed-Embleton%NULL%2,                                 Hamish%Reed-Embleton%NULL%0,                                 Jen%Lewis%NULL%2,                                 Jen%Lewis%NULL%0,                                 Pamela%Bain%NULL%1,                                 Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                                 Kenneth W%Chow%NULL%1,                                 Jonathan%Vo%NULL%1,                                 Wei%Hou%NULL%1,                                 Haifang%Li%NULL%1,                                 Paul S%Richman%NULL%1,                                 Sandeep K%Mallipattu%NULL%1,                                 Hal A%Skopicki%NULL%1,                                 Adam J%Singer%NULL%1,                                 Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                                 Julien%Moragny%NULL%2,                                 Julien%Moragny%NULL%0,                                 Youssef%Bennis%NULL%1,                                 Benjamin%Batteux%NULL%1,                                 Etienne%Brochot%NULL%1,                                 Jean Luc%Schmit%NULL%1,                                 Jean-Philippe%Lanoix%NULL%1,                                 Claire%Andrejak%NULL%1,                                 Olivier%Ganry%NULL%1,                                 Michel%Slama%NULL%1,                                 Julien%Maizel%NULL%1,                                 Yazine%Mahjoub%NULL%1,                                 Kamel%Masmoudi%NULL%1,                                 Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                                 Yi%Liu%NULL%0,                                 Keliang%Chen%NULL%1,                                 Suying%Yan%NULL%1,                                 Xiangrong%Bai%NULL%1,                                 Juan%Li%947281063@qq.com%1,                                 Dong%Liu%ld2069@outlook.com%2,                                 Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                                 Javier%López-Pais%NULL%1,                                 Carla Eugenia%Cacho-Antonio%NULL%1,                                 Pablo José%Antúnez-Muiños%NULL%1,                                 Teba%González-Ferrero%NULL%1,                                 Marta%Pérez-Poza%NULL%1,                                 Óscar%Otero-García%NULL%1,                                 Brais%Díaz-Fernández%NULL%1,                                 María%Bastos-Fernández%NULL%1,                                 Noelia%Bouzas-Cruz%NULL%1,                                 Xoan Carlos%Sanmartín-Pena%NULL%1,                                 Alfonso%Varela-Román%NULL%1,                                 Manuel%Portela-Romero%NULL%1,                                 Luis%Valdés-Cuadrado%NULL%1,                                 Antonio%Pose-Reino%NULL%1,                                 José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                                 Federico%Rea%NULL%1,                                 Monica%Ludergnani%NULL%4,                                 Monica%Ludergnani%NULL%0,                                 Giovanni%Apolone%NULL%1,                                 Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                                 Guohui%Xiao%NULL%1,                                 Juanjuan%Zhang%NULL%1,                                 Xing%He%NULL%1,                                 Min%Ou%NULL%1,                                 Jing%Bi%NULL%1,                                 Rongqing%Yang%NULL%1,                                 Wencheng%Di%NULL%1,                                 Zhaoqin%Wang%NULL%1,                                 Zigang%Li%NULL%1,                                 Hong%Gao%NULL%1,                                 Lei%Liu%NULL%1,                                 Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                                 Francisca%García-Iglesias%NULL%1,                                 Teresa%González-Alegre%NULL%1,                                 Francisco%Blanco%NULL%1,                                 Marta%Varas%NULL%1,                                 Clara%Hernández-Blanco%NULL%1,                                 Victor%Hontañón%NULL%1,                                 María J.%Jaras-Hernández%NULL%1,                                 Mónica%Martínez-Prieto%NULL%1,                                 Araceli%Menéndez-Saldaña%NULL%1,                                 María L.%Cachán%NULL%1,                                 Eva%Estirado%NULL%1,                                 Carlos%Lahoz%NULL%1,                                 Rosa%de Miguel%NULL%1,                                 Miriam%Romero%NULL%1,                                 Mar%Lago%NULL%1,                                 Cristina%García-Quero%NULL%1,                                 Cristina%Plaza%NULL%1,                                 Talía%Sainz-Costa%NULL%1,                                 Susana%Rivas-Vila%NULL%1,                                 Blanca%Sánchez%NULL%1,                                 Celia García%Torres%NULL%1,                                 Lucía%Martínez-Tobar%NULL%1,                                 María%Hernandez-Pérez%NULL%1,                                 Pablo%Racionero%NULL%1,                                 Patricia%Mir-Ihara%NULL%1,                                 Jesús%Peña-López%NULL%1,                                 Marta%Bautista-Barea%NULL%1,                                 Alexa P.%Benítez%NULL%1,                                 Pablo%Rodríguez-Merlos%NULL%1,                                 María%Barcenilla%NULL%1,                                 María San%Basilio%NULL%1,                                 María%Valencia%NULL%1,                                 Ricardo%Romero-Martín%NULL%1,                                 Ana%Boto de los Bueis%NULL%1,                                 Adriana%de la Hoz-Polo%NULL%1,                                 María%del Pino-Cidad%NULL%1,                                 Javier%Coca-Robinot%NULL%1,                                 Bárbara%González-Ferrer%NULL%1,                                 Pedro%Fernández-Pérez%NULL%1,                                 Isabel%Mogollón%NULL%1,                                 María S.%Montoro-Romero%NULL%1,                                 Isabel%Villalaín%NULL%1,                                 Almudena%del Hierro-Zarzuelo%NULL%1,                                 Irene%Hernández-Martín%NULL%1,                                 Javier%Domínguez%NULL%1,                                 Alberto%Luna%NULL%1,                                 Soledad%Montoro%NULL%1,                                 Margarita%Sánchez-Orgaz%NULL%1,                                 Gloria%Amorena%NULL%1,                                 Cosme%Lavín-Dapena%NULL%1,                                 Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                                 Stanislas%Gleye%NULL%1,                                 Isabelle%Clerc Urmes%NULL%1,                                 Elodie%Laugel%NULL%1,                                 Jonas%Callet%NULL%1,                                 Françoise%Barbé%NULL%1,                                 Sophie%Orlowski%NULL%1,                                 Catherine%Malaplate%NULL%1,                                 Isabelle%Aimone-Gastin%NULL%1,                                 Beatrice Maatem%Caillierez%NULL%1,                                 Marc%Merten%NULL%1,                                 Elise%Jeannesson%NULL%1,                                 Raphaël%Kormann%NULL%1,                                 Jean-Luc%Olivier%NULL%1,                                 Rosa-Maria%Rodriguez-Guéant%NULL%1,                                 Farès%Namour%NULL%1,                                 Sybille%Bevilacqua%NULL%1,                                 Marie-Reine%Losser%NULL%1,                                 Bruno%Levy%NULL%1,                                 Antoine%Kimmoun%NULL%1,                                 Sébastien%Gibot%NULL%1,                                 Nathalie%Thilly%NULL%1,                                 Luc%Frimat%NULL%1,                                 Evelyne%Schvoerer%NULL%1,                                 Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                                 Samrachana%Adhikari%NULL%1,                                 Claudia%Pulgarin%NULL%1,                                 Andrea B.%Troxel%NULL%1,                                 Eduardo%Iturrate%NULL%1,                                 Stephen B.%Johnson%NULL%1,                                 Anaïs%Hausvater%NULL%1,                                 Jonathan D.%Newman%NULL%1,                                 Jeffrey S.%Berger%NULL%1,                                 Sripal%Bangalore%NULL%1,                                 Stuart D.%Katz%NULL%1,                                 Glenn I.%Fishman%NULL%1,                                 Dennis%Kunichoff%NULL%1,                                 Yu%Chen%NULL%1,                                 Gbenga%Ogedegbe%NULL%1,                                 Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                                 Massimiliano%Marino%NULL%3,                                 Debora%Formisano%NULL%1,                                 Francesco%Venturelli%NULL%1,                                 Massimo%Vicentini%NULL%3,                                 Massimo%Vicentini%NULL%0,                                 Roberto%Grilli%NULL%2,                                 NULL%NULL%NULL%0,                                 Gianluigi%Forloni%NULL%8,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0,                                 Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                                 Paolo%Maggi%NULL%2,                                 Paolo%Maggi%NULL%0,                                 Vincenzo%Messina%NULL%1,                                 Pasquale%Iuliano%NULL%2,                                 Pasquale%Iuliano%NULL%0,                                 Antonio%Sardu%NULL%1,                                 Vincenzo%Iovinella%NULL%1,                                 Giuseppe%Paolisso%NULL%1,                                 Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                                 Rasimcan%Meral%NULL%1,                                 Alpay%Medetalibeyoğlu%NULL%1,                                 Hilal%Konyaoğlu%NULL%1,                                 Murat%Köse%NULL%1,                                 Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                                 Yun%Qiu%NULL%1,                                 Xiang-Bin%Xing%NULL%1,                                 Subrata%Ghosh%NULL%1,                                 Min-Hu%Chen%NULL%1,                                 Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                                 Maddalena%Giannella%NULL%1,                                 Michele%Bartoletti%NULL%1,                                 Filippo%Trapani%NULL%1,                                 Marina%Tadolini%NULL%1,                                 Claudio%Borghi%NULL%1,                                 Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                                 Marco%Massari%NULL%3,                                 Marco%Massari%NULL%0,                                 Roberto%Da Cas%NULL%2,                                 Francesca%Menniti Ippolito%NULL%2,                                 Janet%Sultana%NULL%2,                                 Salvatore%Crisafulli%NULL%2,                                 Paolo%Giorgi Rossi%NULL%2,                                 Massimiliano%Marino%NULL%0,                                 Manuel%Zorzi%NULL%2,                                 Emanuela%Bovo%NULL%2,                                 Olivia%Leoni%NULL%2,                                 Monica%Ludergnani%NULL%0,                                 Stefania%Spila Alegiani%stefania.spila@iss.it%2,                                 Stefania%Spila Alegiani%NULL%0,                                 Francesca%Menniti Ippolito%NULL%0,                                 Roberto%Da Cas%NULL%0,                                 Marco%Massari%NULL%0,                                 Giuseppe%Traversa%NULL%1,                                 Graziano%Onder%NULL%1,                                 Gianluca%Trifirò%NULL%1,                                 Janet%Sultana%NULL%0,                                 Valentina%Ientile%NULL%1,                                 Salvatore%Crisafulli%NULL%0,                                 Paolo%Giorgi Rossi%NULL%0,                                 Roberto%Grilli%NULL%0,                                 Giulio%Formoso%NULL%1,                                 Massimiliano%Marino%NULL%0,                                 Massimo%Vicentini%NULL%0,                                 Olivia%Leoni%NULL%0,                                 Monica%Ludergnani%NULL%0,                                 Danilo%Cereda%NULL%1,                                 Eliana%Ferroni%NULL%1,                                 Stefano%Guzzinati%NULL%1,                                 Emanuela%Bovo%NULL%0,                                 Manuel%Zorzi%NULL%0,                                 Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                                 Chaolin%Huang%NULL%1,                                 Guohui%Fan%NULL%1,                                 Zhibo%Liu%NULL%1,                                 Lianhan%Shang%NULL%1,                                 Fei%Zhou%NULL%1,                                 Yeming%Wang%NULL%1,                                 Jiapei%Yu%NULL%1,                                 Luning%Yang%NULL%1,                                 Ke%Xie%NULL%1,                                 Zhisheng%Huang%NULL%1,                                 Lixue%Huang%NULL%1,                                 Xiaoying%Gu%NULL%1,                                 Hui%Li%NULL%1,                                 Yi%Zhang%NULL%0,                                 Yimin%Wang%NULL%1,                                 Frederick G.%Hayden%NULL%1,                                 Peter W.%Horby%NULL%1,                                 Bin%Cao%caobin_ben@163.com%1,                                 Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                                 Dan%Liu%NULL%1,                                 Shaoqing%Zeng%NULL%1,                                 Siyuan%Wang%NULL%1,                                 Sen%Xu%NULL%1,                                 Ya%Wang%NULL%1,                                 Ruidi%Yu%NULL%1,                                 Yue%Gao%NULL%1,                                 Huayi%Li%NULL%1,                                 Xinxia%Feng%NULL%1,                                 Ning%Zhou%NULL%0,                                 Chunxia%Zhao%NULL%1,                                 Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                                 Lihua%Zhu%NULL%1,                                 Jingjing%Cai%NULL%1,                                 Fang%Lei%NULL%1,                                 Juan-Juan%Qin%NULL%1,                                 Jing%Xie%NULL%1,                                 Ye-Mao%Liu%NULL%1,                                 Yan-Ci%Zhao%NULL%1,                                 Xuewei%Huang%NULL%1,                                 Lijin%Lin%NULL%1,                                 Meng%Xia%NULL%1,                                 Ming-Ming%Chen%NULL%1,                                 Xu%Cheng%NULL%1,                                 Xiao%Zhang%NULL%1,                                 Deliang%Guo%NULL%1,                                 Yuanyuan%Peng%NULL%1,                                 Yan-Xiao%Ji%NULL%1,                                 Jing%Chen%NULL%1,                                 Zhi-Gang%She%NULL%1,                                 Yibin%Wang%NULL%0,                                 Qingbo%Xu%NULL%1,                                 Renfu%Tan%NULL%1,                                 Haitao%Wang%NULL%1,                                 Jun%Lin%NULL%1,                                 Pengcheng%Luo%NULL%1,                                 Shouzhi%Fu%NULL%1,                                 Hongbin%Cai%NULL%1,                                 Ping%Ye%NULL%1,                                 Bing%Xiao%NULL%1,                                 Weiming%Mao%NULL%1,                                 Liming%Liu%NULL%1,                                 Youqin%Yan%NULL%1,                                 Mingyu%Liu%NULL%1,                                 Manhua%Chen%NULL%1,                                 Xiao-Jing%Zhang%NULL%1,                                 Xinghuan%Wang%NULL%1,                                 Rhian M.%Touyz%NULL%1,                                 Jiahong%Xia%NULL%1,                                 Bing-Hong%Zhang%NULL%1,                                 Xiaodong%Huang%NULL%1,                                 Yufeng%Yuan%NULL%1,                                 Rohit%Loomba%NULL%1,                                 Peter P.%Liu%NULL%1,                                 Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%0, Sandra%Santos-Martinez%NULL%1, Diego%López-Otero%NULL%0, Luis%Nombela-Franco%NULL%1, Enrique%Gutiérrez-Ibanes%NULL%1, Raquel%Del Valle%NULL%1, Erika%Muñoz-García%NULL%1, Víctor A.%Jiménez-Diaz%NULL%1, Ander%Regueiro%NULL%1, Rocío%González-Ferreiro%NULL%1, Tomás%Benito%NULL%1, Xoan Carlos%Sanmartin-Pena%NULL%1, Pablo%Catalá%NULL%1, Tania%Rodríguez-Gabella%NULL%1, Jose Raúl%Delgado-Arana%NULL%1, Manuel%Carrasco-Moraleja%NULL%1, Borja%Ibañez%NULL%1, J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>by the American College of Cardiology Foundation. Published by Elsevier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is a viral pandemic precipitated by the severe acute respiratory syndrome coronavirus 2. Since previous reports suggested that viral entry into cells may involve angiotensin converting enzyme 2, there has been growing concern that angiotensin converting enzyme inhibitor (ACEI) and angiotensin II receptor blocker (ARB) use may exacerbate the disease severity.
+ In this retrospective, single-center US study of adult patients diagnosed with COVID-19, we evaluated the association of ACEI/ARB use with hospital admission.
+ Secondary outcomes included: ICU admission, mechanical ventilation, length of hospital stay, use of inotropes, and all-cause mortality.
+ Propensity score matching was performed to account for potential confounders.
+ Among 590 unmatched patients diagnosed with COVID-19, 78 patients were receiving ACEI/ARB (median age 63 years and 59.7% male) and 512 patients were non-users (median age 42 years and 47.1% male).
+ In the propensity matched population, multivariate logistic regression analysis adjusting for age, gender and comorbidities demonstrated that ACEI/ARB use was not associated with hospital admission (OR 1.2, 95%CI 0.5 to 2.7, p = 0.652).
+ CAD and CKD/end stage renal disease [ESRD] remained independently associated with admission to hospital.
+ All-cause mortality, ICU stay, need for ventilation, and inotrope use was not significantly different between the 2 study groups.
+ In conclusion, among patients who were diagnosed with COVID-19, ACEI/ARB use was not associated with increased risk of hospital admission.
+</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%0, David M.%Tehrani%NULL%1, Soniya V.%Rabadia%NULL%1, Marlene%Frost%NULL%1, Rushi V.%Parikh%NULL%1, Marcella%Calfon-Press%NULL%1, Olcay%Aksoy%NULL%1, Soban%Umar%NULL%1, Reza%Ardehali%NULL%1, Amir%Rabbani%NULL%1, Pooya%Bokhoor%NULL%1, Ali%Nsair%NULL%1, Jesse%Currier%NULL%1, Jonathan%Tobis%NULL%1, Gregg C.%Fonarow%NULL%1, Ravi%Dave%NULL%1, Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>Excerpta Medica</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0, Zeljko%Kraljevic%NULL%2, Thomas%Searle%NULL%2, Rebecca%Bendayan%NULL%3, O'Gallagher%Kevin%NULL%2, Andrew%Pickles%NULL%2, Amos%Folarin%NULL%2, Lukasz%Roguski%NULL%2, Kawsar%Noor%NULL%2, Anthony%Shek%NULL%2, Rosita%Zakeri%NULL%0, Ajay M.%Shah%ajay.shah@kcl.ac.uk%3, James T.H.%Teo%jamesteo@nhs.net%3, Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%3]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%0, Mauro%Chiarito%NULL%1, Bernhard%Reimers%NULL%2, Bernhard%Reimers%NULL%0, Elena%Azzolini%NULL%1, Giuseppe%Ferrante%NULL%1, Ilaria%My%NULL%1, Giacomo%Viggiani%NULL%1, Cristina%Panico%NULL%1, Damiano%Regazzoli%NULL%1, Michele%Ciccarelli%NULL%5, Antonio%Voza%NULL%3, Alessio%Aghemo%NULL%5, Hongliang%Li%NULL%6, Yibin%Wang%NULL%6, Gianluigi%Condorelli%NULL%1, Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0, Feng%Wang%NULL%10, Peng%Chen%NULL%0, Jiangang%Jiang%NULL%4, Guanglin%Cui%NULL%2, Ning%Zhou%NULL%10, Francesco%Moroni%NULL%2, Javid J.%Moslehi%NULL%4, Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%4, Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%4]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%0, Ming%Zhong%NULL%1, Ya%Liu%NULL%1, Yi%Zhang%NULL%0, Kai%Zhang%NULL%1, De-zhen%Su%NULL%1, Xiao%Meng%NULL%1, Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%0, Duncan%Young%NULL%2, Duncan%Young%NULL%0, Carol%Coupland%NULL%1, Keith M%Channon%NULL%1, Pui San%Tan%NULL%1, David A%Harrison%NULL%1, Kathryn%Rowan%NULL%2, Kathryn%Rowan%NULL%0, Paul%Aveyard%NULL%1, Ian D%Pavord%NULL%1, Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%0, Yue%Cai%NULL%1, Kan%Zhang%NULL%2, Kan%Zhang%NULL%0, Lei%Zhou%NULL%0, Yao%Zhang%NULL%4, Xijing%Zhang%NULL%0, Qi%Li%NULL%2, Weiqin%Li%NULL%1, Shiming%Yang%NULL%2, Xiaoyan%Zhao%NULL%1, Yuying%Zhao%NULL%1, Hui%Wang%NULL%6, Yi%Liu%NULL%4, Zhiyong%Yin%NULL%1, Ruining%Zhang%NULL%1, Rutao%Wang%NULL%1, Ming%Yang%NULL%0, Chen%Hui%NULL%1, William%Wijns%NULL%1, J William%McEvoy%NULL%1, Osama%Soliman%NULL%2, Osama%Soliman%NULL%0, Yoshinobu%Onuma%NULL%2, Yoshinobu%Onuma%NULL%0, Patrick W%Serruys%NULL%1, Ling%Tao%lingtao@fmmu.edu.cn%1, Fei%Li%lifei01@fmmu.edu.cn%3, Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The aim of this study was to investigate the possible relationship between worse clinical outcomes and the use of angiotensin-converting enzyme inhibitors (ACEIs) or angiotensin receptor blockers (ARBs) in hospitalized COVID-19 patients.
+ A total of 247 adult patients (154 males, 93 females; mean age: 51.3 ± 14.2 years) hospitalized for COVID-19 as confirmed by polymerase chain reaction (PCR) were retrospectively reviewed.
+ Demographic and clinical characteristics and laboratory parameters were analyzed using various statistical modeling.
+ Primary outcomes were defined as the need for intensive care unit (ICU), mechanical ventilation, or occurrence of death.
+ Of the patients, 48 were treated in the ICU with a high flow oxygen/noninvasive mechanical ventilation (NIMV, n = 12) or mechanical ventilation (n = 36).
+ Median length of ICU stay was 13 (range, 7–18) days.
+ Mortality was seen in four of the ICU patients.
+ Other patients were followed in the COVID-19 services for a median of 7 days.
+ There was no significant correlation between the primary outcomes and use of ACEIs/ARBs (frequentist OR = 0.82, 95% confidence interval (CI) 0.29–2.34, p = 0.715 and Bayesian posterior median OR = 0.80, 95% CI 0.31–2.02) and presence of hypertension (frequentist OR = 1.23, 95% CI 0.52–2.92, p = 0.631 and Bayesian posterior median OR = 1.25, 95% CI 0.58–2.60).
+ Neutrophil-to-lymphocyte ratio (NLR) and D-dimer levels were strongly associated with primary outcomes.
+ In conclusion, the presence of hypertension and use of ACEIs/ARBs were not significantly associated with poor primary clinical outcomes; however, NLR and D-dimer levels were strong predictors of clinical worsening.
+</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%0, Erkan%Ekicibasi%NULL%1, Aleks%Degirmencioglu%NULL%1, Ashok%Paudel%NULL%1, Refik%Erdim%NULL%1, Hilal Kurtoglu%Gumusel%NULL%1, Elif%Eroglu%NULL%1, Ibrahim Halil%Tanboga%NULL%1, Sinan%Dagdelen%NULL%1, Nevin%Sariguzel%NULL%1, Ceyda Erel%Kirisoglu%NULL%1, Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0, Jiatian%Cao%NULL%2, Yumeng%Yao%NULL%2, Xuejuan%Jin%NULL%2, Zhe%Luo%NULL%2, Yuan%Xue%NULL%2, Chouwen%Zhu%NULL%2, Yanan%Song%NULL%2, Ying%Wang%NULL%12, Yunzeng%Zou%NULL%2, Juying%Qian%NULL%2, Kaihuan%Yu%NULL%2, Hui%Gong%NULL%2, Junbo%Ge%NULL%2]</t>
+  </si>
+  <si>
+    <t>AME Publishing Company</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0, Ju-Hyun%Kim%NULL%4, Jin-Sung%Park%NULL%4, Min Cheol%Chang%wheel633@ynu.ac.kr%0, Donghwi%Park%bdome@hanmail.net%5]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%0, Raphael Romano%Bruno%NULL%0, Bernhard%Wernly%NULL%0, Michael%Joannidis%NULL%0, Sandra%Oeyen%NULL%0, Tilemachos%Zafeiridis%NULL%1, Brian%Marsh%NULL%0, Finn H%Andersen%NULL%1, Rui%Moreno%NULL%0, Ana Margarida%Fernandes%NULL%1, Antonio%Artigas%NULL%0, Bernardo Bollen%Pinto%NULL%0, Joerg%Schefold%NULL%1, Georg%Wolff%NULL%1, Malte%Kelm%NULL%2, Malte%Kelm%NULL%0, Dylan W%De Lange%NULL%1, Bertrand%Guidet%NULL%0, Hans%Flaatten%NULL%0, Jesper%Fjølner%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%0, Jae Chol%Choi%NULL%1, Seung-Hun%You%NULL%1, Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%0, Hamish%Reed-Embleton%NULL%2, Hamish%Reed-Embleton%NULL%0, Jen%Lewis%NULL%2, Jen%Lewis%NULL%0, Pamela%Bain%NULL%1, Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0, Kenneth W%Chow%NULL%2, Jonathan%Vo%NULL%2, Wei%Hou%NULL%0, Haifang%Li%NULL%4, Paul S%Richman%NULL%2, Sandeep K%Mallipattu%NULL%2, Hal A%Skopicki%NULL%2, Adam J%Singer%NULL%2, Tim Q%Duong%tim.duong@stonybrook.edu%2]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%0, Julien%Moragny%NULL%2, Julien%Moragny%NULL%0, Youssef%Bennis%NULL%1, Benjamin%Batteux%NULL%1, Etienne%Brochot%NULL%1, Jean Luc%Schmit%NULL%1, Jean-Philippe%Lanoix%NULL%1, Claire%Andrejak%NULL%1, Olivier%Ganry%NULL%1, Michel%Slama%NULL%1, Julien%Maizel%NULL%1, Yazine%Mahjoub%NULL%2, Kamel%Masmoudi%NULL%1, Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the efficacy of angiotensin‐converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) vs calcium channel blockers (CCBs) on the progression of Corona Virus Disease 2019 (COVID‐19) patients with hypertension in Wuhan.
+ This retrospective single‐center case series analyzed COVID‐19 patients with hypertension, treated with ACEIs/ARBs or CCBs at the Tongji Hospital of Wuhan City, China from 25th January to 15th March 2020. After propensity score matching analysis, 76 patients were selected into two groups.
+ Univariate and multivariable analyses were conducted to determine factors related to improvement measures and outcome measures by Cox proportional hazard regression models.
+ Among 157 patients with confirmed COVID‐19 combined hypertension, including 73 males and 84 females, a median age of 67.28 ± 9.11 vs 65.39 ± 10.85 years.
+ A univariable analysis indicated that clinical classification, lymphocyte count, and interleukin‐2 receptor were associated with a lengthened negative time of nucleic acid, with a significant difference between two groups (P = .
+036).
+ Furthermore, we found no obvious difference in nucleic acid conversion time between ACEIs/ARBs and CCBs groups (hazard ratio [HR]: 0.70; 95% confidence interval [CI]: [0.97, 3.38]; P = .
+18) in the multivariable analysis as well as chest computed tomography improved time (HR: 0.73; 95% CI [0.45, 1.2]; P = .
+87), and hospitalization time between ACEIs/ARBs and CCBs groups (HR: 1.06; 95% CI [0.44, 1.1]; P = .
+83).
+ Our study provided additional evidence of no obvious difference in progress and prognosis between ACEIs/ACEIs and CCBs group, which may suggest ACEIs/ARBs may have scarcely influence on increasing the clinical severe situations of COVID‐19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0, Yi%Liu%NULL%0, Keliang%Chen%NULL%2, Suying%Yan%NULL%2, Xiangrong%Bai%NULL%2, Juan%Li%947281063@qq.com%0, Dong%Liu%ld2069@outlook.com%0, Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>Sociedad Española de Cardiología. Published by Elsevier España, S.L.U.</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0, Federico%Rea%NULL%2, Monica%Ludergnani%NULL%6, Monica%Ludergnani%NULL%0, Giovanni%Apolone%NULL%2, Giovanni%Corrao%NULL%2]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dysfunction of the renin-angiotensin system (RAS) has been observed in coronavirus infection disease (COVID-19) patients, but whether RAS inhibitors, such as angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin II type 1 receptor blockers (ARBs), are associated with clinical outcomes remains unknown.
+ COVID-19 patients with hypertension were enrolled to evaluate the effect of RAS inhibitors.
+ We observed that patients receiving ACEI or ARB therapy had a lower rate of severe diseases and a trend toward a lower level of IL-6 in peripheral blood.
+ In addition, ACEI or ARB therapy increased CD3 and CD8 T cell counts in peripheral blood and decreased the peak viral load compared to other antihypertensive drugs.
+ This evidence supports the benefit of using ACEIs or ARBs to potentially contribute to the improvement of clinical outcomes of COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0, Guohui%Xiao%NULL%3, Juanjuan%Zhang%NULL%3, Xing%He%NULL%3, Min%Ou%NULL%3, Jing%Bi%NULL%3, Rongqing%Yang%NULL%3, Wencheng%Di%NULL%3, Zhaoqin%Wang%NULL%7, Zigang%Li%NULL%3, Hong%Gao%NULL%0, Lei%Liu%NULL%0, Guoliang%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%0, Francisca%García-Iglesias%NULL%1, Teresa%González-Alegre%NULL%1, Francisco%Blanco%NULL%1, Marta%Varas%NULL%1, Clara%Hernández-Blanco%NULL%1, Victor%Hontañón%NULL%1, María J.%Jaras-Hernández%NULL%1, Mónica%Martínez-Prieto%NULL%1, Araceli%Menéndez-Saldaña%NULL%1, María L.%Cachán%NULL%1, Eva%Estirado%NULL%1, Carlos%Lahoz%NULL%1, Rosa%de Miguel%NULL%1, Miriam%Romero%NULL%1, Mar%Lago%NULL%1, Cristina%García-Quero%NULL%1, Cristina%Plaza%NULL%1, Talía%Sainz-Costa%NULL%1, Susana%Rivas-Vila%NULL%1, Blanca%Sánchez%NULL%1, Celia García%Torres%NULL%1, Lucía%Martínez-Tobar%NULL%1, María%Hernandez-Pérez%NULL%1, Pablo%Racionero%NULL%1, Patricia%Mir-Ihara%NULL%1, Jesús%Peña-López%NULL%1, Marta%Bautista-Barea%NULL%1, Alexa P.%Benítez%NULL%1, Pablo%Rodríguez-Merlos%NULL%1, María%Barcenilla%NULL%1, María San%Basilio%NULL%1, María%Valencia%NULL%1, Ricardo%Romero-Martín%NULL%1, Ana%Boto de los Bueis%NULL%1, Adriana%de la Hoz-Polo%NULL%1, María%del Pino-Cidad%NULL%1, Javier%Coca-Robinot%NULL%1, Bárbara%González-Ferrer%NULL%1, Pedro%Fernández-Pérez%NULL%1, Isabel%Mogollón%NULL%1, María S.%Montoro-Romero%NULL%1, Isabel%Villalaín%NULL%1, Almudena%del Hierro-Zarzuelo%NULL%1, Irene%Hernández-Martín%NULL%1, Javier%Domínguez%NULL%1, Alberto%Luna%NULL%1, Soledad%Montoro%NULL%1, Margarita%Sánchez-Orgaz%NULL%1, Gloria%Amorena%NULL%1, Cosme%Lavín-Dapena%NULL%1, Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%0, Stanislas%Gleye%NULL%1, Isabelle%Clerc Urmes%NULL%1, Elodie%Laugel%NULL%1, Jonas%Callet%NULL%1, Françoise%Barbé%NULL%1, Sophie%Orlowski%NULL%1, Catherine%Malaplate%NULL%1, Isabelle%Aimone-Gastin%NULL%1, Beatrice Maatem%Caillierez%NULL%1, Marc%Merten%NULL%1, Elise%Jeannesson%NULL%1, Raphaël%Kormann%NULL%1, Jean-Luc%Olivier%NULL%1, Rosa-Maria%Rodriguez-Guéant%NULL%1, Farès%Namour%NULL%1, Sybille%Bevilacqua%NULL%1, Marie-Reine%Losser%NULL%3, Bruno%Levy%NULL%2, Antoine%Kimmoun%NULL%2, Sébastien%Gibot%NULL%2, Nathalie%Thilly%NULL%1, Luc%Frimat%NULL%1, Evelyne%Schvoerer%NULL%1, Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0, Samrachana%Adhikari%NULL%2, Claudia%Pulgarin%NULL%2, Andrea B.%Troxel%NULL%2, Eduardo%Iturrate%NULL%2, Stephen B.%Johnson%NULL%2, Anaïs%Hausvater%NULL%2, Jonathan D.%Newman%NULL%2, Jeffrey S.%Berger%NULL%2, Sripal%Bangalore%NULL%4, Stuart D.%Katz%NULL%2, Glenn I.%Fishman%NULL%2, Dennis%Kunichoff%NULL%2, Yu%Chen%NULL%4, Gbenga%Ogedegbe%NULL%2, Judith S.%Hochman%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a population-based prospective cohort study on archive data describing the age- and sex-specific prevalence of COVID-19 and its prognostic factors.
+ All 2653 symptomatic patients tested positive for SARS-CoV-2 from February 27 to April 2, 2020 in the Reggio Emilia province, Italy, were included.
+ COVID-19 cumulative incidence, hospitalization and death rates, and adjusted hazard ratios (HR) with 95% confidence interval (95% CI) were calculated according to sociodemographic and clinical characteristics.
+ Females had higher prevalence of infection than males below age 50 (2.61 vs.
+ 1.84 ‰), but lower in older ages (16.49 vs.
+ 20.86 ‰ over age 80).
+ Case fatality rate reached 20.7% in cases with more than 4 weeks follow up.
+ After adjusting for age and comorbidities, men had a higher risk of hospitalization (HR 1.4 95% CI 1.2 to 1.6) and of death (HR 1.6, 95% CI 1.2 to 2.1).
+ Patients over age 80 compared to age &amp;lt; 50 had HR 7.1 (95% CI 5.4 to 9.3) and HR 27.8 (95% CI 12.5 to 61.7) for hospitalization and death, respectively.
+ Immigrants had a higher risk of hospitalization (HR 1.3, 95% CI 0.99 to 1.81) than Italians and a similar risk of death.
+ Risk of hospitalization and of death were higher in patients with heart failure, arrhythmia, dementia, coronary heart disease, diabetes, and hypertension, while COPD increased the risk of hospitalization (HR 1.9, 95% CI 1.4 to 2.5) but not of death (HR 1.1, 95% CI 0.7 to 1.7).
+ Previous use of ACE inhibitors had no effect on risk of death (HR 0.97, 95% CI 0.69 to 1.34).
+ Identified susceptible populations and fragile patients should be considered when setting priorities in public health planning and clinical decision making.
+</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0, Massimiliano%Marino%NULL%6, Debora%Formisano%NULL%4, Francesco%Venturelli%NULL%4, Massimo%Vicentini%NULL%8, Massimo%Vicentini%NULL%0, Roberto%Grilli%NULL%5, NULL%NULL%NULL%0, Gianluigi%Forloni%NULL%24, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0, Paolo%Maggi%NULL%4, Paolo%Maggi%NULL%0, Vincenzo%Messina%NULL%2, Pasquale%Iuliano%NULL%4, Pasquale%Iuliano%NULL%0, Antonio%Sardu%NULL%2, Vincenzo%Iovinella%NULL%2, Giuseppe%Paolisso%NULL%2, Raffaele%Marfella%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0, Rasimcan%Meral%NULL%2, Alpay%Medetalibeyoğlu%NULL%2, Hilal%Konyaoğlu%NULL%2, Murat%Köse%NULL%2, Tufan%Tükek%NULL%2]</t>
+  </si>
+  <si>
+    <t>Kare Publishing</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%0, Yun%Qiu%NULL%1, Xiang-Bin%Xing%NULL%1, Subrata%Ghosh%NULL%1, Min-Hu%Chen%NULL%1, Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>by the AGA Institute</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%0, Maddalena%Giannella%NULL%1, Michele%Bartoletti%NULL%1, Filippo%Trapani%NULL%1, Marina%Tadolini%NULL%1, Claudio%Borghi%NULL%1, Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%0, Marco%Massari%NULL%5, Marco%Massari%NULL%0, Roberto%Da Cas%NULL%2, Francesca%Menniti Ippolito%NULL%2, Janet%Sultana%NULL%2, Salvatore%Crisafulli%NULL%2, Paolo%Giorgi Rossi%NULL%0, Massimiliano%Marino%NULL%0, Manuel%Zorzi%NULL%2, Emanuela%Bovo%NULL%2, Olivia%Leoni%NULL%2, Monica%Ludergnani%NULL%0, Stefania%Spila Alegiani%stefania.spila@iss.it%2, Stefania%Spila Alegiani%NULL%0, Francesca%Menniti Ippolito%NULL%0, Roberto%Da Cas%NULL%0, Marco%Massari%NULL%0, Giuseppe%Traversa%NULL%1, Graziano%Onder%NULL%1, Gianluca%Trifirò%NULL%0, Janet%Sultana%NULL%0, Valentina%Ientile%NULL%1, Salvatore%Crisafulli%NULL%0, Paolo%Giorgi Rossi%NULL%0, Roberto%Grilli%NULL%0, Giulio%Formoso%NULL%2, Massimiliano%Marino%NULL%0, Massimo%Vicentini%NULL%0, Olivia%Leoni%NULL%0, Monica%Ludergnani%NULL%0, Danilo%Cereda%NULL%1, Eliana%Ferroni%NULL%1, Stefano%Guzzinati%NULL%1, Emanuela%Bovo%NULL%0, Manuel%Zorzi%NULL%0, Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The possible effects of angiotensin-converting enzyme inhibitors (ACEIs) or angiotensin II receptor blockers (ARBs) on COVID-19 disease severity have generated considerable debate.
+ We performed a single-center, retrospective analysis of hospitalized adult COVID-19 patients in Wuhan, China, who had definite clinical outcome (dead or discharged) by February 15, 2020. Patients on anti-hypertensive treatment with or without ACEI/ARB were compared on their clinical characteristics and outcomes.
+ The medical records from 702 patients were screened.
+ Among the 101 patients with a history of hypertension and taking at least one anti-hypertensive medication, 40 patients were receiving ACEI/ARB as part of their regimen, and 61 patients were on antihypertensive medication other than ACEI/ARB.
+ We observed no statistically significant differences in percentages of in-hospital mortality (28% vs.
+ 34%, P = 0.46), ICU admission (20% vs.
+ 28%, P = 0.37) or invasive mechanical ventilation (18% vs.
+ 26%, P = 0.31) between patients with or without ACEI/ARB treatment.
+ Further multivariable adjustment of age and gender did not provide evidence for a significant association between ACEI/ARB treatment and severe COVID-19 outcomes.
+ Our findings confirm the lack of an association between chronic receipt of renin-angiotensin system antagonists and severe outcomes of COVID-19. Patients should continue previous anti-hypertensive therapy until further evidence is available.
+</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%0, Chaolin%Huang%NULL%0, Guohui%Fan%NULL%0, Zhibo%Liu%NULL%0, Lianhan%Shang%NULL%2, Fei%Zhou%NULL%0, Yeming%Wang%NULL%0, Jiapei%Yu%NULL%1, Luning%Yang%NULL%1, Ke%Xie%NULL%1, Zhisheng%Huang%NULL%1, Lixue%Huang%NULL%1, Xiaoying%Gu%NULL%0, Hui%Li%NULL%0, Yi%Zhang%NULL%0, Yimin%Wang%NULL%1, Frederick G.%Hayden%NULL%2, Peter W.%Horby%NULL%2, Bin%Cao%caobin_ben@163.com%0, Chen%Wang%wangchen@pumc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Higher Education Press</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0, Dan%Liu%NULL%4, Shaoqing%Zeng%NULL%2, Siyuan%Wang%NULL%2, Sen%Xu%NULL%3, Ya%Wang%NULL%3, Ruidi%Yu%NULL%2, Yue%Gao%NULL%0, Huayi%Li%NULL%2, Xinxia%Feng%NULL%2, Ning%Zhou%NULL%0, Chunxia%Zhao%NULL%2, Qinglei%Gao%NULL%2]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0, Lihua%Zhu%NULL%5, Jingjing%Cai%NULL%5, Fang%Lei%NULL%5, Juan-Juan%Qin%NULL%5, Jing%Xie%NULL%5, Ye-Mao%Liu%NULL%4, Yan-Ci%Zhao%NULL%4, Xuewei%Huang%NULL%4, Lijin%Lin%NULL%5, Meng%Xia%NULL%5, Ming-Ming%Chen%NULL%5, Xu%Cheng%NULL%0, Xiao%Zhang%NULL%4, Deliang%Guo%NULL%3, Yuanyuan%Peng%NULL%3, Yan-Xiao%Ji%NULL%5, Jing%Chen%NULL%5, Zhi-Gang%She%NULL%5, Yibin%Wang%NULL%0, Qingbo%Xu%NULL%5, Renfu%Tan%NULL%3, Haitao%Wang%NULL%3, Jun%Lin%NULL%4, Pengcheng%Luo%NULL%3, Shouzhi%Fu%NULL%0, Hongbin%Cai%NULL%3, Ping%Ye%NULL%5, Bing%Xiao%NULL%4, Weiming%Mao%NULL%5, Liming%Liu%NULL%4, Youqin%Yan%NULL%5, Mingyu%Liu%NULL%4, Manhua%Chen%NULL%3, Xiao-Jing%Zhang%NULL%0, Xinghuan%Wang%NULL%12, Rhian M.%Touyz%NULL%3, Jiahong%Xia%NULL%5, Bing-Hong%Zhang%NULL%5, Xiaodong%Huang%NULL%4, Yufeng%Yuan%NULL%5, Rohit%Loomba%NULL%4, Peter P.%Liu%NULL%4, Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
   </si>
 </sst>
 </file>
@@ -5187,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1376</v>
+        <v>1477</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -5199,10 +5628,10 @@
         <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>1478</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5280,10 +5709,10 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>1479</v>
       </c>
       <c r="E4" t="s">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -5295,10 +5724,10 @@
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>1481</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -5331,7 +5760,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1378</v>
+        <v>1482</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -5343,10 +5772,10 @@
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>1483</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -5379,7 +5808,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>1379</v>
+        <v>1484</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -5391,10 +5820,10 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -5427,7 +5856,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>1380</v>
+        <v>1486</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -5439,10 +5868,10 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>1487</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -5475,7 +5904,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>1381</v>
+        <v>1488</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -5487,10 +5916,10 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>1489</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -5517,28 +5946,28 @@
         <v>43965.0</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>841</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>1148</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>1149</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -5571,7 +6000,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1382</v>
+        <v>1490</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5583,10 +6012,10 @@
         <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>1491</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -5613,25 +6042,25 @@
         <v>2020.0</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>1383</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>1059</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5667,7 +6096,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1384</v>
+        <v>1492</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -5679,10 +6108,10 @@
         <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -5712,10 +6141,10 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>1493</v>
       </c>
       <c r="E13" t="s">
-        <v>1385</v>
+        <v>1494</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -5727,10 +6156,10 @@
         <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>1064</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>1495</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -5757,25 +6186,25 @@
         <v>2020.0</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>1386</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>1059</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5805,28 +6234,28 @@
         <v>2020.0</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>847</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>576</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
         <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>1156</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -5859,7 +6288,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>1387</v>
+        <v>1496</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -5871,10 +6300,10 @@
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>1497</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -5904,10 +6333,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>1388</v>
+        <v>1498</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -5919,10 +6348,10 @@
         <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>1064</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>1499</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -5949,28 +6378,28 @@
         <v>2020.0</v>
       </c>
       <c r="C18" t="s">
-        <v>579</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>850</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>1148</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>1156</v>
+        <v>74</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -6003,7 +6432,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -6015,10 +6444,10 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -6051,7 +6480,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1390</v>
+        <v>1501</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -6063,10 +6492,10 @@
         <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -6099,7 +6528,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>1391</v>
+        <v>1502</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -6111,10 +6540,10 @@
         <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>1503</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -6147,7 +6576,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>1392</v>
+        <v>1504</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -6159,10 +6588,10 @@
         <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -6189,28 +6618,28 @@
         <v>43944.0</v>
       </c>
       <c r="C23" t="s">
-        <v>586</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>855</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>1165</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
         <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>1166</v>
+        <v>74</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -6243,7 +6672,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>1393</v>
+        <v>1505</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -6255,10 +6684,10 @@
         <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -6288,10 +6717,10 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>1506</v>
       </c>
       <c r="E25" t="s">
-        <v>1394</v>
+        <v>1507</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -6303,10 +6732,10 @@
         <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>1487</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -6339,7 +6768,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>1395</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -6351,10 +6780,10 @@
         <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>1508</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -6387,7 +6816,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1396</v>
+        <v>1509</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -6399,10 +6828,10 @@
         <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>1510</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -6429,25 +6858,25 @@
         <v>44064.0</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>727</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>1397</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>1059</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
         <v>74</v>
@@ -6480,10 +6909,10 @@
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>1511</v>
       </c>
       <c r="E29" t="s">
-        <v>1398</v>
+        <v>1512</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -6495,10 +6924,10 @@
         <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>1513</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -6531,7 +6960,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>1399</v>
+        <v>1514</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -6543,10 +6972,10 @@
         <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>1515</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -6579,7 +7008,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>1400</v>
+        <v>1516</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -6591,10 +7020,10 @@
         <v>131</v>
       </c>
       <c r="I31" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -6621,28 +7050,28 @@
         <v>2020.0</v>
       </c>
       <c r="C32" t="s">
-        <v>596</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>864</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>1176</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
         <v>74</v>
       </c>
       <c r="J32" t="s">
-        <v>1156</v>
+        <v>74</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -6675,7 +7104,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1401</v>
+        <v>1517</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -6687,10 +7116,10 @@
         <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>1510</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -6717,25 +7146,25 @@
         <v>43943.0</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>439</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>1402</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>1059</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
         <v>74</v>
@@ -6768,10 +7197,10 @@
         <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>1518</v>
       </c>
       <c r="E35" t="s">
-        <v>1403</v>
+        <v>1519</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -6783,10 +7212,10 @@
         <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>1520</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -6819,7 +7248,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>1404</v>
+        <v>1521</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -6831,10 +7260,10 @@
         <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>1487</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -6867,7 +7296,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>1405</v>
+        <v>1522</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -6879,10 +7308,10 @@
         <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>1523</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -6909,28 +7338,28 @@
         <v>44166.0</v>
       </c>
       <c r="C38" t="s">
-        <v>604</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>1406</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>606</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
         <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>1156</v>
+        <v>74</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -6963,7 +7392,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1407</v>
+        <v>1524</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -6975,10 +7404,10 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>1525</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -7011,7 +7440,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1408</v>
+        <v>1526</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -7023,10 +7452,10 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>1485</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -7056,10 +7485,10 @@
         <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>786</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>1409</v>
+        <v>1527</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -7071,10 +7500,10 @@
         <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>1064</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>1499</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -7104,10 +7533,10 @@
         <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>1528</v>
       </c>
       <c r="E42" t="s">
-        <v>1410</v>
+        <v>1529</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -7119,10 +7548,10 @@
         <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>1064</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>1530</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -7149,28 +7578,28 @@
         <v>2020.0</v>
       </c>
       <c r="C43" t="s">
-        <v>611</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>875</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>1188</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
         <v>74</v>
       </c>
       <c r="J43" t="s">
-        <v>1156</v>
+        <v>74</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -7203,7 +7632,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1411</v>
+        <v>1531</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -7215,10 +7644,10 @@
         <v>200</v>
       </c>
       <c r="I44" t="s">
-        <v>1051</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>1532</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -7248,10 +7677,10 @@
         <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>1533</v>
       </c>
       <c r="E45" t="s">
-        <v>1412</v>
+        <v>1534</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -7263,10 +7692,10 @@
         <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>1054</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>1535</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
